--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200427.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200427.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\疫情大数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hubei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21F9F5-72EC-4583-9ECF-36AC6D6E6302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF576A-1A1F-4E54-B223-2B9500AFD5AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3960" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -615,15 +615,15 @@
   <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
@@ -782,9 +782,6 @@
       <c r="G2" t="s">
         <v>50</v>
       </c>
-      <c r="K2">
-        <v>12</v>
-      </c>
       <c r="P2">
         <v>50333</v>
       </c>
@@ -831,7 +828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -896,7 +893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -961,7 +958,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -1091,7 +1088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -1156,7 +1153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>46</v>
       </c>
@@ -1416,7 +1413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -1481,7 +1478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>46</v>
       </c>
@@ -1611,7 +1608,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -1741,7 +1738,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -1806,7 +1803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>46</v>
       </c>
@@ -1868,7 +1865,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>46</v>
       </c>
@@ -1924,7 +1921,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -1989,7 +1986,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>78</v>
       </c>
@@ -2091,7 +2088,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200427.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200427.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hubei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF576A-1A1F-4E54-B223-2B9500AFD5AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53D8529-261D-4F46-88AA-59FC5755A411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -764,6 +764,9 @@
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
@@ -829,6 +832,9 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -894,6 +900,9 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -959,6 +968,9 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -1024,6 +1036,9 @@
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -1089,6 +1104,9 @@
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -1154,6 +1172,9 @@
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -1219,6 +1240,9 @@
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -1284,6 +1308,9 @@
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -1349,6 +1376,9 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
@@ -1414,6 +1444,9 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -1479,6 +1512,9 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -1544,6 +1580,9 @@
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
@@ -1609,6 +1648,9 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1674,6 +1716,9 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -1738,7 +1783,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -1803,7 +1851,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>46</v>
       </c>
@@ -1865,7 +1916,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>46</v>
       </c>
@@ -1921,7 +1975,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -1986,7 +2043,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>78</v>
       </c>
